--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3474999.094994599</v>
+        <v>3470694.755184731</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283173</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7879806.564818459</v>
+        <v>7879806.564818458</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
-        <v>111.2254363169656</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>72.63544656439292</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>16.85569866657564</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>187.561662379828</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>241.670151579629</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>162.7079352124036</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148.6865099692908</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>97.26234557100793</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>127.4695742187186</v>
       </c>
       <c r="V6" t="n">
-        <v>101.7753515829906</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>187.9080338835429</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>165.9023602076848</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>377.3314586594886</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>261.5992879968477</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614502</v>
+        <v>92.83909691614504</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115223</v>
+        <v>18.47335059662977</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.9062466127829</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.0445532160604</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>137.0725476966457</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>53.82913822150018</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>125.3789405564517</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>28.42659968729146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>96.02642072444083</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>168.3381167077338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W25" t="n">
-        <v>200.4120083539603</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.0162797694411</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>74.56474874233423</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>231.5999924959147</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701339</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>168.97752971242</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>73.23997380652447</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722615</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784687</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560533</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.831980181937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.615473018212</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462235</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856522</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012137</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016443</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T40" t="n">
-        <v>95.81917536084332</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365907</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722615</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576158</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784687</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560533</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.7158229532424</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229309</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462235</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856522</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012137</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365907</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.831980181937</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.615473018212</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465689</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229309</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922685</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462235</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856522</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012137</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>116.2873251119398</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365907</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.3553494954609</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="C2" t="n">
-        <v>153.3553494954609</v>
+        <v>367.7894056603332</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356494</v>
+        <v>94.46624834395173</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946887</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298167</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298167</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298167</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298167</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298167</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="Y2" t="n">
-        <v>419.7330060626388</v>
+        <v>634.1670622275112</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>346.2949333158936</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>346.2949333158936</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>197.3605236546423</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>38.12306864918679</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>38.12306864918679</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>38.12306864918679</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302307</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267545</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293595</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560893</v>
+        <v>904.2569522304914</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1021.314552263895</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>808.383790249628</v>
+        <v>865.3992953799359</v>
       </c>
       <c r="V3" t="n">
-        <v>808.383790249628</v>
+        <v>865.3992953799359</v>
       </c>
       <c r="W3" t="n">
-        <v>554.1464335214264</v>
+        <v>611.1619386517343</v>
       </c>
       <c r="X3" t="n">
-        <v>346.2949333158936</v>
+        <v>403.3104384462014</v>
       </c>
       <c r="Y3" t="n">
-        <v>346.2949333158936</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.5795646275102</v>
+        <v>488.0630263227563</v>
       </c>
       <c r="C4" t="n">
-        <v>337.5795646275102</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="D4" t="n">
-        <v>337.5795646275102</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287943</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551006</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375332</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075539</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165356</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165356</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>848.0684854165356</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>603.9572211946881</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>337.5795646275102</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>337.5795646275102</v>
+        <v>890.5040702965262</v>
       </c>
       <c r="Y4" t="n">
-        <v>337.5795646275102</v>
+        <v>669.711491152996</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>690.233069932778</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C5" t="n">
-        <v>690.233069932778</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D5" t="n">
-        <v>423.8554133656</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E5" t="n">
         <v>157.4777567984221</v>
@@ -4564,25 +4564,25 @@
         <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>840.4214638411526</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X5" t="n">
-        <v>840.4214638411526</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.4214638411526</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360.9315366218661</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>360.9315366218661</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>211.9971269606149</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>211.9971269606149</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699345</v>
       </c>
       <c r="L6" t="n">
-        <v>247.7358133554696</v>
+        <v>338.8740072302312</v>
       </c>
       <c r="M6" t="n">
-        <v>438.3365024519934</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>648.3904695545984</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>839.7105578442523</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>839.7105578442523</v>
+        <v>926.0983743305515</v>
       </c>
       <c r="V6" t="n">
-        <v>736.9071724068881</v>
+        <v>690.9462660988088</v>
       </c>
       <c r="W6" t="n">
-        <v>736.9071724068881</v>
+        <v>436.7089093706072</v>
       </c>
       <c r="X6" t="n">
-        <v>736.9071724068881</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="Y6" t="n">
-        <v>529.1468736419342</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.09711040012049</v>
+        <v>484.8363344083309</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>315.900151480424</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287949</v>
@@ -4737,10 +4737,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>736.256897008846</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>469.8792404416679</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>469.8792404416679</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>887.2773783821008</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.09711040012049</v>
+        <v>666.4847992385706</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.8593072485417</v>
+        <v>1201.605746138051</v>
       </c>
       <c r="C8" t="n">
-        <v>373.8967903081299</v>
+        <v>1201.605746138051</v>
       </c>
       <c r="D8" t="n">
-        <v>373.8967903081299</v>
+        <v>843.3400475313003</v>
       </c>
       <c r="E8" t="n">
-        <v>373.8967903081299</v>
+        <v>843.3400475313003</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9512895589264</v>
+        <v>432.3541427416928</v>
       </c>
       <c r="G8" t="n">
-        <v>355.2854715909976</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467179</v>
+        <v>187.370225146718</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607439</v>
+        <v>442.1757437607437</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045954</v>
+        <v>795.1862829045951</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995231</v>
+        <v>1219.64796299523</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520959</v>
+        <v>1655.591685209589</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940602</v>
+        <v>2053.905718940601</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550205</v>
+        <v>2359.356530550204</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661172</v>
+        <v>2540.564622661171</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="T8" t="n">
-        <v>2351.810676439065</v>
+        <v>2351.810676439064</v>
       </c>
       <c r="U8" t="n">
-        <v>2098.229497964635</v>
+        <v>2351.810676439064</v>
       </c>
       <c r="V8" t="n">
-        <v>1767.166610621064</v>
+        <v>2351.810676439064</v>
       </c>
       <c r="W8" t="n">
-        <v>1502.924905573743</v>
+        <v>2351.810676439064</v>
       </c>
       <c r="X8" t="n">
-        <v>1129.459147312663</v>
+        <v>1978.344918177984</v>
       </c>
       <c r="Y8" t="n">
-        <v>1129.459147312663</v>
+        <v>1588.205586202173</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010859</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199589</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587077</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532522</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801372</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763253</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>69.87120530446165</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637193</v>
+        <v>167.3422431396337</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148192</v>
+        <v>613.7598241331862</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377483015</v>
+        <v>908.295807566668</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287032</v>
+        <v>1271.36227604097</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471873</v>
+        <v>1658.44667851354</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459263</v>
+        <v>1990.33348850093</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888889</v>
+        <v>2237.368846930555</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442634</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342791</v>
       </c>
       <c r="S9" t="n">
         <v>2424.826280251707</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685356</v>
+        <v>2230.816477685355</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751586</v>
+        <v>2002.726321751585</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519843</v>
+        <v>1767.574213519842</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791642</v>
+        <v>1513.336856791641</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586109</v>
+        <v>1305.485356586108</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821154</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.674010863609</v>
+        <v>939.7609172812159</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7378279357022</v>
+        <v>770.8247343533091</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6211885233664</v>
+        <v>620.7080949409733</v>
       </c>
       <c r="E10" t="n">
         <v>620.7080949409733</v>
@@ -4959,55 +4959,55 @@
         <v>157.0862549473603</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685582</v>
       </c>
       <c r="J10" t="n">
-        <v>76.6346830838019</v>
+        <v>76.63468308380182</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676576</v>
+        <v>248.2500215676574</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368933</v>
+        <v>523.385004336893</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904054</v>
+        <v>823.8653899904049</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616503</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477367</v>
+        <v>1533.156055412622</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477367</v>
+        <v>1342.201961254986</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477367</v>
+        <v>1342.201961254986</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477367</v>
+        <v>1342.201961254986</v>
       </c>
       <c r="V10" t="n">
-        <v>1497.312026591866</v>
+        <v>1342.201961254986</v>
       </c>
       <c r="W10" t="n">
-        <v>1497.312026591866</v>
+        <v>1342.201961254986</v>
       </c>
       <c r="X10" t="n">
-        <v>1269.322475693849</v>
+        <v>1342.201961254986</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.322475693849</v>
+        <v>1121.409382111456</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>545.3854261579756</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>397.4723325755825</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>397.4723325755825</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>230.2762332904625</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>705.9324428257312</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>887.5809076559709</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385791</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.91413360155</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>3087.702309109632</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664238</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6253,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6305,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>662.1522880254209</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>493.2161050975141</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6463,19 +6463,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2490.32382148308</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2490.32382148308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.1865537761979</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.250370848291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.1337314359553</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>483.2206378535622</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>336.3306903556518</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>169.1345910705317</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,28 +6931,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,13 +6964,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511905</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232836</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>2123.082773965825</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1868.398285759938</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1578.981115722978</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>1350.99156482496</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>636.6680198981016</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>467.731836970195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>317.6151975578596</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.903366400058</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.052681478296</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038349</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797754</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.06254548757</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>2100.275499668537</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1811.200273012735</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1556.515784806848</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.098614769888</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1039.109063871871</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>818.316484728341</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7435,28 +7435,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3025.224490384397</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>2856.28830745649</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>2856.28830745649</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>2708.375213874097</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376187</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376187</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218386</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866299</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296624</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822163</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998103</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729138</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389147</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098132</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671691</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398591</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650994</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673038</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467151</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430191</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>3388.154264430191</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>3167.361685286662</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,7 +7684,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7715,34 +7715,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263524</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356175</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232821</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408893</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429792</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578595</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038349</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797754</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2079.600600930055</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1790.525374274253</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1790.525374274253</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1501.108204237293</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237293</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127216</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>5.262887399594348</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446522</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8297,10 +8297,10 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127261</v>
       </c>
       <c r="L6" t="n">
-        <v>5.262887399594234</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.39745977365101</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.2581536004326</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538089</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9861830434849</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>86.46557462472367</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>126.7587027673763</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.1580536648033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>71.22040037418701</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>83.79952661609417</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W25" t="n">
-        <v>86.11098998263071</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>65.72996410388966</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>54.58448189332941</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>10.85445046951727</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>212.9445005827197</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922685</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T40" t="n">
-        <v>121.5862749664446</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.11615722869462</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922685</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>101.1181252153482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238277</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676874.9361144769</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144769</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676874.9361144769</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>676874.9361144769</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676874.9361144769</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244616</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244615</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244628</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.604713255</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580814</v>
+        <v>390680.0076580808</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606912</v>
+        <v>507909.2320606916</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101823</v>
+        <v>95270.23779101814</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954685</v>
+        <v>132717.9756954686</v>
       </c>
       <c r="N3" t="n">
-        <v>2.155809732517161e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447204</v>
+        <v>141668.8507447205</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26441,7 +26441,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26450,16 +26450,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680611</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680611</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680592</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567915</v>
+        <v>92902.86757567912</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-235794.2119341751</v>
       </c>
       <c r="C6" t="n">
-        <v>444293.7686570181</v>
+        <v>444293.7686570179</v>
       </c>
       <c r="D6" t="n">
-        <v>134211.9111459815</v>
+        <v>134211.9111459824</v>
       </c>
       <c r="E6" t="n">
-        <v>125801.8666118511</v>
+        <v>125454.4873574938</v>
       </c>
       <c r="F6" t="n">
-        <v>633711.0986725425</v>
+        <v>633363.7194181854</v>
       </c>
       <c r="G6" t="n">
-        <v>633711.0986725425</v>
+        <v>633363.7194181855</v>
       </c>
       <c r="H6" t="n">
-        <v>633711.0986725426</v>
+        <v>633363.7194181854</v>
       </c>
       <c r="I6" t="n">
-        <v>633711.0986725424</v>
+        <v>633363.7194181853</v>
       </c>
       <c r="J6" t="n">
-        <v>564711.9442534281</v>
+        <v>564364.5649990716</v>
       </c>
       <c r="K6" t="n">
-        <v>633711.0986725424</v>
+        <v>633363.7194181853</v>
       </c>
       <c r="L6" t="n">
-        <v>538440.8608815239</v>
+        <v>538093.4816271672</v>
       </c>
       <c r="M6" t="n">
-        <v>500993.122977074</v>
+        <v>500645.7437227168</v>
       </c>
       <c r="N6" t="n">
-        <v>633711.098672542</v>
+        <v>633363.7194181853</v>
       </c>
       <c r="O6" t="n">
-        <v>633711.0986725423</v>
+        <v>633363.7194181855</v>
       </c>
       <c r="P6" t="n">
-        <v>633711.0986725424</v>
+        <v>633363.7194181851</v>
       </c>
     </row>
   </sheetData>
@@ -26718,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627848</v>
+        <v>933.7024595627843</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085698</v>
+        <v>640.1406900856978</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,10 +26940,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.694762165646451e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933066</v>
+        <v>319.647445793306</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788891</v>
+        <v>434.2730407788895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841919</v>
+        <v>376.4268100841916</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139504</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841919</v>
+        <v>376.4268100841916</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139501</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841919</v>
+        <v>376.4268100841916</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139504</v>
+        <v>532.5675980139506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>243.4576053037174</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>340.1987280813171</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545475</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,13 +27460,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>82.62362160463412</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27514,7 +27514,7 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.29282512372663</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27596,16 +27596,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>10.46749174419901</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>63.00172017663351</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>234.0473316941898</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27669,7 +27669,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>288.9755930850457</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27715,7 +27715,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>98.38491328483603</v>
       </c>
       <c r="V6" t="n">
-        <v>131.0252355664347</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>35.30631199602297</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>59.8072951813524</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>34.21770112876089</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465005</v>
+        <v>65.76608425465014</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>87.64168072056532</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164522504</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.776449164521438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>5.629297034324082</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
@@ -28070,16 +28070,16 @@
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>115.0650956271823</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.03164900590976e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885564</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954668</v>
+        <v>38.44132789546677</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157559</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597254</v>
+        <v>318.5802175972537</v>
       </c>
       <c r="K8" t="n">
-        <v>477.46916277632</v>
+        <v>477.4691627763197</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354942</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359953</v>
+        <v>659.0954050359949</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752509</v>
+        <v>669.7602577525086</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307906</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983032</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542137</v>
+        <v>405.3441667542135</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864755</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140488</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944157</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508451</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436934</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035144</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026285</v>
+        <v>69.1468330902628</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079429</v>
+        <v>189.7441951079428</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502175</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.065474157129</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617177</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152224</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519093</v>
+        <v>477.835446451909</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947597</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463707</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
         <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366407</v>
+        <v>37.30405581366404</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133952</v>
+        <v>8.095024154133947</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419036</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752563</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840007</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6342251841589</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954062</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772522</v>
+        <v>195.6183185772521</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490128</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023131</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462355</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046259</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708735</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939805</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307429</v>
+        <v>75.70643221307425</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658783</v>
+        <v>29.34274778658781</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942766</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650352</v>
+        <v>0.09183958618650347</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>393.3904345522222</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>290.6810969936921</v>
+        <v>556.532545233504</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>506.5665344352321</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32551,28 +32551,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,28 +32788,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>428.6149474293401</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33262,13 +33262,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>397.4049812900374</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>344.2757660550399</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043702</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,19 +34453,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572284</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34792,13 +34792,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>33.87976539609076</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966403</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L6" t="n">
-        <v>153.4895779655505</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35029,7 +35029,7 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705677</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313394</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.576302165507</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087226</v>
+        <v>428.7491718087222</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559181</v>
+        <v>440.3471941559176</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091039</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430337</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797643</v>
+        <v>183.038476879764</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2001390723434</v>
+        <v>20.20013907234326</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127625</v>
+        <v>117.3040282149271</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758585</v>
+        <v>450.9268494884369</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772548</v>
+        <v>297.5110943772545</v>
       </c>
       <c r="M9" t="n">
-        <v>621.9919601401319</v>
+        <v>366.7338065396991</v>
       </c>
       <c r="N9" t="n">
-        <v>640.140690085698</v>
+        <v>390.9943459318889</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074649</v>
+        <v>335.2392020074646</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804295</v>
+        <v>249.5306650804292</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603492</v>
+        <v>326.4584983961981</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783599</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787334</v>
+        <v>25.68023017873332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513694</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.914124009329</v>
+        <v>277.9141240093288</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641536</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254641</v>
+        <v>301.7881314254639</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186656</v>
+        <v>262.5721089186654</v>
       </c>
       <c r="P10" t="n">
-        <v>200.917535035767</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228612</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>254.8360547723481</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>159.3393849103587</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>364.4325005132138</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>290.0605676494659</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>259.5635423156784</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>212.9340539717066</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295366</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902381</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295366</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295366</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3470694.755184731</v>
+        <v>3472455.285487514</v>
       </c>
     </row>
     <row r="7">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>19.98946990210325</v>
       </c>
       <c r="G2" t="n">
-        <v>72.63544656439292</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,22 +743,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.561662379828</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>102.9765992936891</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>83.43224246993546</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>162.7079352124036</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015062</v>
+        <v>110.096520216718</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>97.26234557100793</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4695742187183</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>127.4695742187186</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.4395259172752</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>165.9023602076848</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>377.3314586594886</v>
+        <v>202.0656516519023</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614504</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059662977</v>
+        <v>20.24979976115249</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052098959</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.0445532160604</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>196.7796819683675</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>125.3789405564517</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>190.7368854541461</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634796</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E31" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417108</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.97752971242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3556,13 +3556,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.1670622275112</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="C2" t="n">
-        <v>367.7894056603332</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="D2" t="n">
-        <v>101.4117490931552</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="E2" t="n">
-        <v>101.4117490931552</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="F2" t="n">
-        <v>94.46624834395173</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946892</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946892</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V2" t="n">
-        <v>634.1670622275112</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W2" t="n">
-        <v>634.1670622275112</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="X2" t="n">
-        <v>634.1670622275112</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.1670622275112</v>
+        <v>840.4214638411526</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.5501396812475</v>
+        <v>932.5028692494924</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0971104001205</v>
+        <v>758.0498399683654</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0971104001205</v>
+        <v>609.1154303071141</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304914</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1021.314552263895</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>865.3992953799359</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>865.3992953799359</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>611.1619386517343</v>
+        <v>932.5028692494924</v>
       </c>
       <c r="X3" t="n">
-        <v>403.3104384462014</v>
+        <v>932.5028692494924</v>
       </c>
       <c r="Y3" t="n">
-        <v>195.5501396812475</v>
+        <v>932.5028692494924</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.0630263227563</v>
+        <v>424.4249251342374</v>
       </c>
       <c r="C4" t="n">
-        <v>319.1268433948493</v>
+        <v>255.4887422063304</v>
       </c>
       <c r="D4" t="n">
-        <v>169.0102039825136</v>
+        <v>105.3721027939947</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>105.3721027939947</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4530,10 +4530,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>890.5040702965262</v>
+        <v>826.8659691080072</v>
       </c>
       <c r="Y4" t="n">
-        <v>669.711491152996</v>
+        <v>606.0733899644771</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>423.8554133656</v>
+        <v>677.2692571593335</v>
       </c>
       <c r="C5" t="n">
-        <v>423.8554133656</v>
+        <v>677.2692571593335</v>
       </c>
       <c r="D5" t="n">
-        <v>157.4777567984221</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="E5" t="n">
-        <v>157.4777567984221</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G5" t="n">
         <v>137.5684432757741</v>
@@ -4564,25 +4564,25 @@
         <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388467</v>
+        <v>943.6469137265115</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>943.6469137265115</v>
       </c>
       <c r="Y5" t="n">
-        <v>423.8554133656</v>
+        <v>677.2692571593335</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>149.8542560755936</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>149.8542560755936</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>149.8542560755936</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>149.8542560755936</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>149.8542560755936</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699345</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302312</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4679,19 +4679,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>926.0983743305515</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>690.9462660988088</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W6" t="n">
-        <v>436.7089093706072</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8574091650744</v>
+        <v>357.6145548405475</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.0971104001205</v>
+        <v>149.8542560755936</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.8363344083309</v>
+        <v>424.4249251342374</v>
       </c>
       <c r="C7" t="n">
         <v>315.900151480424</v>
@@ -4713,34 +4713,34 @@
         <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4767,10 +4767,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>887.2773783821008</v>
+        <v>826.8659691080072</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.4847992385706</v>
+        <v>606.0733899644771</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.605746138051</v>
+        <v>1410.357830041763</v>
       </c>
       <c r="C8" t="n">
-        <v>1201.605746138051</v>
+        <v>1410.357830041763</v>
       </c>
       <c r="D8" t="n">
-        <v>843.3400475313003</v>
+        <v>1052.092131435013</v>
       </c>
       <c r="E8" t="n">
-        <v>843.3400475313003</v>
+        <v>666.3038788367685</v>
       </c>
       <c r="F8" t="n">
-        <v>432.3541427416928</v>
+        <v>255.3179740471609</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146718</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607437</v>
+        <v>442.1757437607409</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045951</v>
+        <v>795.1862829045908</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.64796299523</v>
+        <v>1219.647962995223</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209589</v>
+        <v>1655.59168520958</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940601</v>
+        <v>2053.90571894059</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550204</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661171</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="T8" t="n">
-        <v>2351.810676439064</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="U8" t="n">
-        <v>2351.810676439064</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="V8" t="n">
-        <v>2351.810676439064</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="W8" t="n">
-        <v>2351.810676439064</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.344918177984</v>
+        <v>2187.097002081697</v>
       </c>
       <c r="Y8" t="n">
-        <v>1588.205586202173</v>
+        <v>1796.957670105885</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010859</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199589</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587077</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532522</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801372</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763253</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530446165</v>
+        <v>71.66559839993886</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J9" t="n">
-        <v>167.3422431396337</v>
+        <v>113.4887579637183</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331862</v>
+        <v>298.085754314817</v>
       </c>
       <c r="L9" t="n">
-        <v>908.295807566668</v>
+        <v>776.704049571456</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.36227604097</v>
+        <v>1139.770518045756</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.44667851354</v>
+        <v>1526.854920518325</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.33348850093</v>
+        <v>1858.741730505713</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930555</v>
+        <v>2421.055229888875</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342791</v>
+        <v>2536.272628442619</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342791</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251707</v>
+        <v>2424.826280251692</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685355</v>
+        <v>2230.816477685341</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751585</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519842</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791641</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586108</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821154</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>939.7609172812159</v>
+        <v>517.1540250450086</v>
       </c>
       <c r="C10" t="n">
-        <v>770.8247343533091</v>
+        <v>348.2178421171016</v>
       </c>
       <c r="D10" t="n">
-        <v>620.7080949409733</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7080949409733</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="F10" t="n">
-        <v>473.818147443063</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473603</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685582</v>
+        <v>51.21125520685553</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380182</v>
+        <v>76.63468308380115</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676574</v>
+        <v>248.2500215676561</v>
       </c>
       <c r="L10" t="n">
-        <v>523.385004336893</v>
+        <v>523.3850043368909</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904049</v>
+        <v>823.865389990402</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931093</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616502</v>
+        <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412622</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="S10" t="n">
-        <v>1342.201961254986</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="T10" t="n">
-        <v>1342.201961254986</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="U10" t="n">
-        <v>1342.201961254986</v>
+        <v>1635.76914547736</v>
       </c>
       <c r="V10" t="n">
-        <v>1342.201961254986</v>
+        <v>1437.001789953757</v>
       </c>
       <c r="W10" t="n">
-        <v>1342.201961254986</v>
+        <v>1147.584619916796</v>
       </c>
       <c r="X10" t="n">
-        <v>1342.201961254986</v>
+        <v>919.5950690187784</v>
       </c>
       <c r="Y10" t="n">
-        <v>1121.409382111456</v>
+        <v>698.8024898752483</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,49 +5029,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192554</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1628.786163100837</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1339.368993063877</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>1111.379442165859</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5369,16 +5369,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
@@ -5843,7 +5843,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,43 +6205,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6466,16 +6466,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6685,13 +6685,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6840,16 +6840,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,25 +7393,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7687,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.262887399594348</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127261</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.39745977365101</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>185.9417291143014</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9861830434849</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>126.7587027673763</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>34.97276993489106</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="E31" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>699024.2420410016</v>
+        <v>699024.2420410014</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676874.9361144768</v>
+        <v>676874.9361144769</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144768</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>676874.9361144769</v>
+        <v>676874.9361144766</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676874.9361144766</v>
+        <v>676874.9361144769</v>
       </c>
     </row>
     <row r="12">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244615</v>
+        <v>759463.6371244616</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244628</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="G2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132553</v>
@@ -26337,25 +26337,25 @@
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580808</v>
+        <v>390680.0076580772</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606916</v>
+        <v>507909.2320606955</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101814</v>
+        <v>95270.23779101722</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954686</v>
+        <v>132717.9756954695</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447205</v>
+        <v>141668.8507447215</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26441,7 +26441,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26450,7 +26450,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680585</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567912</v>
+        <v>92902.86757567883</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>444293.7686570179</v>
       </c>
       <c r="D6" t="n">
-        <v>134211.9111459824</v>
+        <v>134211.9111459844</v>
       </c>
       <c r="E6" t="n">
-        <v>125454.4873574938</v>
+        <v>125767.1286864113</v>
       </c>
       <c r="F6" t="n">
-        <v>633363.7194181854</v>
+        <v>633676.3607471071</v>
       </c>
       <c r="G6" t="n">
-        <v>633363.7194181855</v>
+        <v>633676.3607471061</v>
       </c>
       <c r="H6" t="n">
-        <v>633363.7194181854</v>
+        <v>633676.3607471065</v>
       </c>
       <c r="I6" t="n">
-        <v>633363.7194181853</v>
+        <v>633676.360747107</v>
       </c>
       <c r="J6" t="n">
-        <v>564364.5649990716</v>
+        <v>564677.2063279925</v>
       </c>
       <c r="K6" t="n">
-        <v>633363.7194181853</v>
+        <v>633676.3607471067</v>
       </c>
       <c r="L6" t="n">
-        <v>538093.4816271672</v>
+        <v>538406.1229560893</v>
       </c>
       <c r="M6" t="n">
-        <v>500645.7437227168</v>
+        <v>500958.3850516369</v>
       </c>
       <c r="N6" t="n">
-        <v>633363.7194181853</v>
+        <v>633676.3607471066</v>
       </c>
       <c r="O6" t="n">
-        <v>633363.7194181855</v>
+        <v>633676.3607471066</v>
       </c>
       <c r="P6" t="n">
-        <v>633363.7194181851</v>
+        <v>633676.3607471067</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627843</v>
+        <v>933.7024595627813</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856978</v>
+        <v>640.1406900856941</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793306</v>
+        <v>319.6474457933031</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788895</v>
+        <v>434.2730407788929</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841916</v>
+        <v>376.426810084188</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.5675980139547</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-2.816143694816859e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841916</v>
+        <v>376.426810084188</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.5675980139545</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841916</v>
+        <v>376.426810084188</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.5675980139547</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917676</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>386.8865758396082</v>
       </c>
       <c r="G2" t="n">
-        <v>340.1987280813171</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27514,19 +27514,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>38.29282512372663</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>148.7183838672305</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>61.98880555299579</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>63.00172017663351</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590681</v>
+        <v>239.144448500695</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>288.9755930850457</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27709,7 +27709,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>8.553145367705099</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
@@ -27751,7 +27751,7 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>98.38491328483603</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.80729518135259</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>59.8072951813524</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>34.21770112876089</v>
+        <v>209.4835081363472</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465014</v>
+        <v>65.76608425465059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164522504</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164536984</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
-        <v>5.629297034324082</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>55.3579613554605</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.49452394800496e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885562</v>
+        <v>3.75357772688555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546677</v>
+        <v>38.44132789546665</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157558</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972537</v>
+        <v>318.5802175972528</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763197</v>
+        <v>477.4691627763182</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354939</v>
+        <v>592.342717135492</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359949</v>
+        <v>659.0954050359928</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525086</v>
+        <v>669.7602577525065</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307903</v>
+        <v>632.4356192307882</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983029</v>
+        <v>539.7691690983012</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542135</v>
+        <v>405.3441667542122</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864754</v>
+        <v>235.7856768864746</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140484</v>
+        <v>85.53465245140455</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508449</v>
+        <v>0.3002862181508439</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436932</v>
+        <v>2.008341139436926</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035143</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902628</v>
+        <v>69.14683309026259</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079428</v>
+        <v>189.7441951079422</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502173</v>
+        <v>324.3030514502162</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571287</v>
+        <v>436.0654741571273</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617174</v>
+        <v>508.8678404617157</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152222</v>
+        <v>522.3360580152205</v>
       </c>
       <c r="O9" t="n">
-        <v>477.835446451909</v>
+        <v>477.8354464519075</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947595</v>
+        <v>383.5050724947583</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463706</v>
+        <v>256.3629847463697</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366404</v>
+        <v>37.30405581366393</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133947</v>
+        <v>8.095024154133922</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419035</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752562</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840006</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415887</v>
+        <v>50.63422518415871</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954061</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772521</v>
+        <v>195.6183185772515</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490127</v>
+        <v>250.3240987490119</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023129</v>
+        <v>263.931664102312</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462354</v>
+        <v>257.6559590462346</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046258</v>
+        <v>237.9869810046251</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708734</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939804</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307425</v>
+        <v>75.70643221307401</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658781</v>
+        <v>29.34274778658772</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942762</v>
+        <v>7.194100917942738</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650347</v>
+        <v>0.09183958618650317</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34792,13 +34792,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015062</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.87976539609076</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089031</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35032,7 +35032,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705675</v>
+        <v>137.5343130705665</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313392</v>
+        <v>257.3793117313376</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655067</v>
+        <v>356.5763021655047</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087222</v>
+        <v>428.7491718087201</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559176</v>
+        <v>440.3471941559156</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091035</v>
+        <v>402.3374078091015</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430333</v>
+        <v>308.5361733430316</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.038476879764</v>
+        <v>183.0384768797627</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234326</v>
+        <v>20.20013907234252</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.3040282149271</v>
+        <v>62.90656844127554</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884369</v>
+        <v>186.4616124758572</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772545</v>
+        <v>483.4528234915546</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396991</v>
+        <v>366.7338065396974</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318889</v>
+        <v>390.9943459318872</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074646</v>
+        <v>335.2392020074631</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804292</v>
+        <v>567.9934337203651</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961981</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783552</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873332</v>
+        <v>25.68023017873294</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513693</v>
+        <v>173.3488267513686</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093288</v>
+        <v>277.914124009328</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641535</v>
+        <v>303.5155410641526</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254639</v>
+        <v>301.7881314254631</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186654</v>
+        <v>262.5721089186648</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357669</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228604</v>
+        <v>54.82702814228558</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
